--- a/data/trans_orig/SALUD_GEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Edad-trans_orig.xlsx
@@ -1310,97 +1310,97 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5536,97 +5536,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4766</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15730,12 +15730,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -15745,12 +15745,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">

--- a/data/trans_orig/SALUD_GEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en País Vasco</t>
+          <t>Salud general percibida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5341,7 +5341,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Andalucia</t>
+          <t>Salud general percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10136,7 +10136,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en C.Valenciana</t>
+          <t>Salud general percibida en C.Valenciana (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -14931,7 +14931,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Barcelona</t>
+          <t>Salud general percibida en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_GEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Edad-trans_orig.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>5082</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>6079</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>883</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>8175</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2448</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>4372</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>12830</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>7266</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>15714</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>12705</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>19321</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>12761</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2781</t>
+          <t>7954</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>20180</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>25466</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>18073</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>10397</t>
+          <t>35586</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20180</t>
+          <t>52231</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18128</t>
+          <t>44832</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21788</t>
+          <t>57507</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,13%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,44%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18300</t>
+          <t>52821</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16200</t>
+          <t>44686</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19928</t>
+          <t>59320</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>62,56%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>38479</t>
+          <t>105050</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>35936</t>
+          <t>93456</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>40847</t>
+          <t>112973</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>73,2%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>80,3%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>4393</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2960</t>
+          <t>8827</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3367</t>
+          <t>8175</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>8688</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5077</t>
+          <t>14036</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6894</t>
+          <t>20422</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4913</t>
+          <t>13722</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9079</t>
+          <t>28667</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9825</t>
+          <t>27898</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7592</t>
+          <t>20973</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12363</t>
+          <t>36873</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>16718</t>
+          <t>48320</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>13644</t>
+          <t>38910</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>20264</t>
+          <t>59565</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,67%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20501</t>
+          <t>66368</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18052</t>
+          <t>58531</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22429</t>
+          <t>73567</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,69%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20649</t>
+          <t>58963</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>18143</t>
+          <t>50829</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23256</t>
+          <t>66059</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>72,47%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>125332</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>38014</t>
+          <t>114331</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>44424</t>
+          <t>134850</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>68,74%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>73,95%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>2745</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,67 +1909,67 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>579</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5804</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>0,49%</t>
         </is>
       </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>1213</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>2451</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>13396</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>8481</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6658</t>
+          <t>21514</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5701</t>
+          <t>9538</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4095</t>
+          <t>6176</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8309</t>
+          <t>14324</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>10135</t>
+          <t>22935</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>7733</t>
+          <t>16140</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>13032</t>
+          <t>32478</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,75%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15505</t>
+          <t>38774</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12769</t>
+          <t>31301</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18290</t>
+          <t>47461</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18358</t>
+          <t>48067</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15643</t>
+          <t>40051</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21603</t>
+          <t>55543</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>33862</t>
+          <t>86841</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>29934</t>
+          <t>75758</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37907</t>
+          <t>98760</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>38,77%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26672</t>
+          <t>75432</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23694</t>
+          <t>66301</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29627</t>
+          <t>83839</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26486</t>
+          <t>66498</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23349</t>
+          <t>58721</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29602</t>
+          <t>74995</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,61%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>57,69%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>53158</t>
+          <t>141930</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>48966</t>
+          <t>130057</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>57167</t>
+          <t>153573</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>58,12%</t>
+          <t>60,29%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>365</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,67 +2478,67 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>8527</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>6142</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>10276</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
           <t>2,03%</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>2575</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>6421</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,4%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7871</t>
+          <t>14819</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>10386</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10351</t>
+          <t>21184</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10197</t>
+          <t>20194</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7856</t>
+          <t>15666</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>13049</t>
+          <t>27214</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>18068</t>
+          <t>35013</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>15111</t>
+          <t>27771</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>43024</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,23%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34955</t>
+          <t>78067</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30724</t>
+          <t>68839</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38423</t>
+          <t>88001</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>53,37%</t>
+          <t>58,12%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>36405</t>
+          <t>68214</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>32751</t>
+          <t>59960</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>39924</t>
+          <t>76364</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>71360</t>
+          <t>146281</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>66043</t>
+          <t>133571</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>76964</t>
+          <t>158923</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>48,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>52,58%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27808</t>
+          <t>57136</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24220</t>
+          <t>48344</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31684</t>
+          <t>66132</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24170</t>
+          <t>57697</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20674</t>
+          <t>49356</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>27405</t>
+          <t>66178</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>51978</t>
+          <t>114833</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>46658</t>
+          <t>104081</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>57377</t>
+          <t>129087</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>42,71%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>4843</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5549</t>
+          <t>8717</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>4810</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>5349</t>
+          <t>7412</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>4774</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>8015</t>
+          <t>11698</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>11110</t>
+          <t>21772</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8581</t>
+          <t>16192</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>14005</t>
+          <t>28407</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15512</t>
+          <t>25975</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>12544</t>
+          <t>20511</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>19152</t>
+          <t>32208</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>26622</t>
+          <t>47746</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>22705</t>
+          <t>40514</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>30975</t>
+          <t>57274</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>36111</t>
+          <t>65293</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>32311</t>
+          <t>57660</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>39833</t>
+          <t>73395</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>58,75%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>41642</t>
+          <t>71193</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>37485</t>
+          <t>63369</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>45779</t>
+          <t>78824</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>50,63%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>77752</t>
+          <t>136486</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>72132</t>
+          <t>125930</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>82914</t>
+          <t>147505</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>52,09%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>54,54%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17245</t>
+          <t>37948</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>14501</t>
+          <t>31245</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20859</t>
+          <t>45728</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22308</t>
+          <t>40869</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>18678</t>
+          <t>34608</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>25991</t>
+          <t>48441</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>39553</t>
+          <t>78817</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>35202</t>
+          <t>69115</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>44526</t>
+          <t>88699</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>32,8%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,32 +3581,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>960</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>2744</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>4609</t>
+          <t>7607</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>6489</t>
+          <t>9692</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11042</t>
+          <t>18874</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>8619</t>
+          <t>14640</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13643</t>
+          <t>23852</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>17664</t>
+          <t>25478</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>14591</t>
+          <t>19994</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>21120</t>
+          <t>30585</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>28706</t>
+          <t>44352</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>24619</t>
+          <t>37974</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>33514</t>
+          <t>51758</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>24,89%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>34416</t>
+          <t>52511</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>31205</t>
+          <t>46727</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>38008</t>
+          <t>58036</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>60,35%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>33244</t>
+          <t>56339</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>29724</t>
+          <t>49827</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>36678</t>
+          <t>62909</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>56,29%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>67660</t>
+          <t>108850</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>62428</t>
+          <t>100456</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>72505</t>
+          <t>117414</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>56,08%</t>
+          <t>56,47%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>13470</t>
+          <t>22829</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>10650</t>
+          <t>18594</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16504</t>
+          <t>28385</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>14840</t>
+          <t>25421</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>12344</t>
+          <t>20768</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>18102</t>
+          <t>30729</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>28310</t>
+          <t>48250</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>24463</t>
+          <t>41517</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>32381</t>
+          <t>55826</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>26,85%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>6944</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>4558</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6161</t>
+          <t>11018</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>9576</t>
+          <t>15326</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7324</t>
+          <t>11254</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>12624</t>
+          <t>20974</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>13745</t>
+          <t>22270</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>10971</t>
+          <t>16583</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>17233</t>
+          <t>28860</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,89%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15027</t>
+          <t>23623</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>12402</t>
+          <t>19329</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>17891</t>
+          <t>29651</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>27278</t>
+          <t>42326</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>23385</t>
+          <t>36399</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>31111</t>
+          <t>48859</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>33,08%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>42305</t>
+          <t>65950</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>37927</t>
+          <t>58027</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>47259</t>
+          <t>74575</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>35,9%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>22542</t>
+          <t>34649</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>19715</t>
+          <t>29329</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>25704</t>
+          <t>39863</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>31455</t>
+          <t>46710</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>28064</t>
+          <t>40606</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>35665</t>
+          <t>54312</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>53997</t>
+          <t>81359</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>48871</t>
+          <t>72274</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>58859</t>
+          <t>90105</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>43,37%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8776</t>
+          <t>14588</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>6786</t>
+          <t>10774</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>11164</t>
+          <t>19255</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>23571</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>9436</t>
+          <t>18810</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>15225</t>
+          <t>29768</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>20836</t>
+          <t>38159</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>17556</t>
+          <t>31923</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>25045</t>
+          <t>45704</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>22,0%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4719,32 +4719,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>11206</t>
+          <t>17617</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>8534</t>
+          <t>13070</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14355</t>
+          <t>23827</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4754,32 +4754,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>18619</t>
+          <t>30618</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>15385</t>
+          <t>23844</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>23072</t>
+          <t>37342</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4789,32 +4789,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>29825</t>
+          <t>48235</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>25718</t>
+          <t>40240</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>35027</t>
+          <t>57730</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -4832,102 +4832,102 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>52180</t>
+          <t>99772</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>46771</t>
+          <t>87190</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>58824</t>
+          <t>114275</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>132178</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>118986</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>147340</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>16,12%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>231949</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>212916</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>250976</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
           <t>14,81%</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>16,7%</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>78620</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>71970</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="inlineStr">
-        <is>
-          <t>86537</t>
-        </is>
-      </c>
-      <c r="N40" s="2" t="inlineStr">
-        <is>
-          <t>19,12%</t>
-        </is>
-      </c>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>17,5%</t>
-        </is>
-      </c>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>21,04%</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>771</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>130799</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>121502</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>139878</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t>17,13%</t>
-        </is>
-      </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -4945,32 +4945,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>154283</t>
+          <t>302422</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>145735</t>
+          <t>282836</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>161668</t>
+          <t>322362</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4980,32 +4980,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>175194</t>
+          <t>331183</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>166792</t>
+          <t>312037</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>184892</t>
+          <t>351403</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>42,86%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5015,32 +5015,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>329477</t>
+          <t>633604</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>317336</t>
+          <t>603740</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>341215</t>
+          <t>661382</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>42,23%</t>
         </is>
       </c>
     </row>
@@ -5058,32 +5058,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>134650</t>
+          <t>326533</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>127040</t>
+          <t>307581</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>143143</t>
+          <t>347446</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>43,75%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5093,32 +5093,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>138813</t>
+          <t>325839</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>129935</t>
+          <t>306339</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>147164</t>
+          <t>348103</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5128,32 +5128,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>273464</t>
+          <t>652372</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>262035</t>
+          <t>623377</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>285411</t>
+          <t>680555</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>43,45%</t>
         </is>
       </c>
     </row>
@@ -5171,17 +5171,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5241,17 +5241,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5649,12 +5649,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23215</t>
+          <t>24223</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8799</t>
+          <t>8946</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37102</t>
+          <t>36813</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>11333</t>
+          <t>11697</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>44848</t>
+          <t>50087</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>11,91%</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32550</t>
+          <t>31310</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76087</t>
+          <t>74531</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45496</t>
+          <t>46900</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>79751</t>
+          <t>80997</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5812,12 +5812,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>85609</t>
+          <t>85981</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142233</t>
+          <t>138957</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>33,04%</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>152981</t>
+          <t>153248</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>198932</t>
+          <t>198425</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,76%</t>
+          <t>64,87%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5910,12 +5910,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>86593</t>
+          <t>85240</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>122796</t>
+          <t>121401</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5945,12 +5945,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>253927</t>
+          <t>251226</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>313891</t>
+          <t>311259</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>60,37%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>74,01%</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8886</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6264</t>
+          <t>7164</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>10792</t>
+          <t>10287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24604</t>
+          <t>25783</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4225</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21536</t>
+          <t>22253</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14614</t>
+          <t>13723</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39807</t>
+          <t>40996</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,54%</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59773</t>
+          <t>60016</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95374</t>
+          <t>97436</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6346,12 +6346,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>118701</t>
+          <t>117308</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>238459</t>
+          <t>242993</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>77,28%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>193372</t>
+          <t>193012</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>351907</t>
+          <t>354362</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>64,71%</t>
+          <t>65,16%</t>
         </is>
       </c>
     </row>
@@ -6444,12 +6444,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>118628</t>
+          <t>116424</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>156266</t>
+          <t>155362</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6459,12 +6459,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>68,13%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -6479,12 +6479,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>67658</t>
+          <t>64659</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>177944</t>
+          <t>180526</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -6514,12 +6514,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>171364</t>
+          <t>167830</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>320248</t>
+          <t>320352</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>58,89%</t>
+          <t>58,91%</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>881</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10672</t>
+          <t>9766</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>2795</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10430</t>
+          <t>10760</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4802</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>16225</t>
+          <t>15862</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6759,12 +6759,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11170</t>
+          <t>11775</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28849</t>
+          <t>30273</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6822,12 +6822,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21457</t>
+          <t>20848</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37730</t>
+          <t>38185</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6857,12 +6857,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>37731</t>
+          <t>38150</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>62848</t>
+          <t>62430</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6872,12 +6872,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -6900,12 +6900,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>111756</t>
+          <t>110827</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>149456</t>
+          <t>146352</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6935,12 +6935,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>125195</t>
+          <t>125395</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>155633</t>
+          <t>156132</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6950,12 +6950,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>246115</t>
+          <t>246241</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>292259</t>
+          <t>292347</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>46,16%</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7013,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>139168</t>
+          <t>141429</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>176907</t>
+          <t>178112</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>132291</t>
+          <t>132678</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>163205</t>
+          <t>163869</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7063,12 +7063,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>280819</t>
+          <t>280908</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>328174</t>
+          <t>329789</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
+          <t>52,07%</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27708</t>
+          <t>28443</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5744</t>
+          <t>5659</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15486</t>
+          <t>15422</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7313,12 +7313,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11021</t>
+          <t>11612</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>37876</t>
+          <t>37509</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14818</t>
+          <t>16591</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>84251</t>
+          <t>85539</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7391,12 +7391,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>42330</t>
+          <t>43876</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>62468</t>
+          <t>64397</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>48629</t>
+          <t>47631</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>139188</t>
+          <t>138233</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,4%</t>
         </is>
       </c>
     </row>
@@ -7469,12 +7469,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>298584</t>
+          <t>298991</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>561887</t>
+          <t>550073</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>210657</t>
+          <t>209356</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>242845</t>
+          <t>241557</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>535568</t>
+          <t>532653</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>850888</t>
+          <t>837893</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>81,19%</t>
         </is>
       </c>
     </row>
@@ -7582,12 +7582,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43897</t>
+          <t>50382</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>226852</t>
+          <t>226453</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7617,12 +7617,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>101905</t>
+          <t>100964</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>130588</t>
+          <t>130861</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>125178</t>
+          <t>124422</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>335505</t>
+          <t>340064</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>32,95%</t>
         </is>
       </c>
     </row>
@@ -7812,12 +7812,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8056</t>
+          <t>7885</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20686</t>
+          <t>21026</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7827,12 +7827,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7847,12 +7847,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15825</t>
+          <t>15175</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>28775</t>
+          <t>29013</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7862,12 +7862,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>26541</t>
+          <t>26274</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>46715</t>
+          <t>45394</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61752</t>
+          <t>62633</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>91550</t>
+          <t>92245</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>70306</t>
+          <t>70539</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>95246</t>
+          <t>94554</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7975,12 +7975,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7995,12 +7995,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>139986</t>
+          <t>138743</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>177795</t>
+          <t>176121</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8010,12 +8010,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>26,6%</t>
         </is>
       </c>
     </row>
@@ -8038,12 +8038,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>158863</t>
+          <t>156715</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>193184</t>
+          <t>192102</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8073,12 +8073,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>149770</t>
+          <t>149632</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>176450</t>
+          <t>176508</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>54,81%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -8108,12 +8108,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>315490</t>
+          <t>316932</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>361191</t>
+          <t>362182</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>47,65%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>54,71%</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8151,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>61108</t>
+          <t>62908</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>89526</t>
+          <t>93291</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>44768</t>
+          <t>45788</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>67064</t>
+          <t>66673</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -8201,12 +8201,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>111322</t>
+          <t>111876</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>150249</t>
+          <t>148687</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8381,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>18601</t>
+          <t>18059</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>36597</t>
+          <t>37347</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -8451,12 +8451,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>12050</t>
+          <t>11074</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>47027</t>
+          <t>47741</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -8494,12 +8494,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>34635</t>
+          <t>34945</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>52936</t>
+          <t>53289</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -8509,12 +8509,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -8529,12 +8529,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>27407</t>
+          <t>22292</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>154262</t>
+          <t>153320</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -8544,12 +8544,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>56650</t>
+          <t>47965</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>187034</t>
+          <t>187357</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,36%</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>107077</t>
+          <t>108314</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>130888</t>
+          <t>129738</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>62,9%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8642,12 +8642,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>196981</t>
+          <t>199619</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>404244</t>
+          <t>414650</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8677,12 +8677,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>329239</t>
+          <t>327918</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>558834</t>
+          <t>574562</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>49,83%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>86,96%</t>
         </is>
       </c>
     </row>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>26342</t>
+          <t>25911</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>43020</t>
+          <t>43806</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8735,12 +8735,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>12919</t>
+          <t>10777</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>71930</t>
+          <t>69853</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8770,12 +8770,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>27632</t>
+          <t>29129</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>107409</t>
+          <t>107955</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8805,12 +8805,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>11553</t>
+          <t>12420</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>24400</t>
+          <t>24846</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8965,12 +8965,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8985,12 +8985,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>35654</t>
+          <t>35796</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>52585</t>
+          <t>52820</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -9020,12 +9020,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>50954</t>
+          <t>51425</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>73230</t>
+          <t>73083</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>39240</t>
+          <t>39291</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>56905</t>
+          <t>57350</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>76191</t>
+          <t>76243</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>98216</t>
+          <t>97295</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -9133,12 +9133,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>120056</t>
+          <t>120735</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>148169</t>
+          <t>149213</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -9148,12 +9148,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9176,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>62393</t>
+          <t>62159</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>81732</t>
+          <t>81545</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9191,12 +9191,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>74203</t>
+          <t>74139</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>95457</t>
+          <t>95073</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -9246,12 +9246,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>141074</t>
+          <t>141495</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>169754</t>
+          <t>170184</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>44,03%</t>
         </is>
       </c>
     </row>
@@ -9289,12 +9289,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>9079</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>21613</t>
+          <t>21797</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>14121</t>
+          <t>14838</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>27593</t>
+          <t>28261</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -9339,12 +9339,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -9359,12 +9359,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>26617</t>
+          <t>26676</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>45147</t>
+          <t>44338</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -9374,12 +9374,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,47%</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>40866</t>
+          <t>40805</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>78102</t>
+          <t>79254</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>73495</t>
+          <t>73590</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>119331</t>
+          <t>120364</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>127453</t>
+          <t>126619</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>188722</t>
+          <t>189643</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>176392</t>
+          <t>167629</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>303453</t>
+          <t>301647</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -9647,12 +9647,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>266389</t>
+          <t>265468</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>418130</t>
+          <t>418233</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -9682,12 +9682,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>491446</t>
+          <t>496679</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>694275</t>
+          <t>701739</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>901589</t>
+          <t>900882</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>1383320</t>
+          <t>1387098</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>65,94%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -9780,12 +9780,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>1017312</t>
+          <t>1013530</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>1443753</t>
+          <t>1457660</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>64,58%</t>
+          <t>65,21%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1963324</t>
+          <t>1962189</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>2612918</t>
+          <t>2598569</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>59,89%</t>
         </is>
       </c>
     </row>
@@ -9858,12 +9858,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>486458</t>
+          <t>505178</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>843005</t>
+          <t>847238</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -9873,12 +9873,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -9893,12 +9893,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>458316</t>
+          <t>446953</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>699247</t>
+          <t>699890</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1084082</t>
+          <t>1085732</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>1507479</t>
+          <t>1511573</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -9943,12 +9943,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>34,84%</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -15161,12 +15161,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>326</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3847</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -15176,12 +15176,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -15196,12 +15196,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>491</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3971</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -15211,12 +15211,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -15239,12 +15239,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>6172</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -15254,12 +15254,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -15274,12 +15274,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10959</t>
+          <t>10690</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -15289,12 +15289,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -15309,12 +15309,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>5465</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>14909</t>
+          <t>14723</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -15324,12 +15324,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -15352,12 +15352,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12070</t>
+          <t>12281</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21846</t>
+          <t>22118</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -15367,12 +15367,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -15387,12 +15387,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16322</t>
+          <t>16197</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26177</t>
+          <t>26010</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -15402,12 +15402,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -15422,12 +15422,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>31754</t>
+          <t>30896</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>45896</t>
+          <t>45148</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -15437,12 +15437,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>35,77%</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39242</t>
+          <t>40070</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50113</t>
+          <t>50154</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -15480,12 +15480,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,68%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -15500,12 +15500,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27798</t>
+          <t>27334</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38410</t>
+          <t>38193</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -15515,12 +15515,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>44,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -15535,12 +15535,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>70235</t>
+          <t>70003</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>84583</t>
+          <t>84944</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -15550,12 +15550,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>67,3%</t>
         </is>
       </c>
     </row>
@@ -15700,7 +15700,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>5011</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -15715,7 +15715,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>5882</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -15808,12 +15808,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10682</t>
+          <t>10677</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -15823,12 +15823,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -15843,12 +15843,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7406</t>
+          <t>7469</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17316</t>
+          <t>17361</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -15858,12 +15858,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -15878,12 +15878,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12886</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25075</t>
+          <t>24164</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -15893,12 +15893,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32218</t>
+          <t>33022</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46997</t>
+          <t>47215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -15956,12 +15956,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40015</t>
+          <t>40423</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56562</t>
+          <t>57381</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -15971,12 +15971,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -15991,12 +15991,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>76649</t>
+          <t>76015</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>98884</t>
+          <t>99026</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>39,34%</t>
         </is>
       </c>
     </row>
@@ -16034,12 +16034,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68871</t>
+          <t>68245</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>84438</t>
+          <t>83704</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -16049,12 +16049,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>68,28%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -16069,12 +16069,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59928</t>
+          <t>59060</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>77168</t>
+          <t>76812</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -16084,12 +16084,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -16104,12 +16104,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>132824</t>
+          <t>133218</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>157179</t>
+          <t>157658</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -16119,12 +16119,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>62,64%</t>
         </is>
       </c>
     </row>
@@ -16264,12 +16264,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3204</t>
+          <t>2990</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -16279,12 +16279,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -16334,12 +16334,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>411</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>4157</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7033</t>
+          <t>6996</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17130</t>
+          <t>17368</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -16392,12 +16392,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -16412,12 +16412,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13788</t>
+          <t>12997</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26013</t>
+          <t>25613</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -16427,12 +16427,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -16447,12 +16447,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>22955</t>
+          <t>22222</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>38687</t>
+          <t>38661</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -16462,12 +16462,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,28%</t>
         </is>
       </c>
     </row>
@@ -16490,12 +16490,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45366</t>
+          <t>45851</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62851</t>
+          <t>63139</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -16505,12 +16505,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -16525,12 +16525,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53988</t>
+          <t>54493</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>71022</t>
+          <t>71359</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -16540,12 +16540,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -16560,12 +16560,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>105306</t>
+          <t>105160</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>131009</t>
+          <t>130066</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -16575,12 +16575,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>48,03%</t>
         </is>
       </c>
     </row>
@@ -16603,12 +16603,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64115</t>
+          <t>63583</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82752</t>
+          <t>82184</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -16618,12 +16618,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -16638,12 +16638,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41663</t>
+          <t>41723</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>57856</t>
+          <t>58049</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -16653,12 +16653,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -16673,12 +16673,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>108533</t>
+          <t>109396</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>134750</t>
+          <t>134351</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -16688,12 +16688,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>49,61%</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7152</t>
+          <t>7274</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -16848,12 +16848,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10448</t>
+          <t>9913</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -16883,12 +16883,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -16903,12 +16903,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>6056</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>14405</t>
+          <t>15319</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -16918,12 +16918,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -16946,12 +16946,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14619</t>
+          <t>14370</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26119</t>
+          <t>26384</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -16961,12 +16961,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -16981,12 +16981,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14594</t>
+          <t>14732</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>29127</t>
+          <t>28859</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -16996,12 +16996,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>32668</t>
+          <t>32417</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>51994</t>
+          <t>51118</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -17031,12 +17031,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>21,55%</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>53727</t>
+          <t>53821</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>70394</t>
+          <t>70574</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -17074,12 +17074,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -17094,12 +17094,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>51785</t>
+          <t>51826</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>68137</t>
+          <t>67878</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -17109,12 +17109,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>57,0%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -17129,12 +17129,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>109279</t>
+          <t>109889</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>133460</t>
+          <t>133983</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -17144,12 +17144,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>56,49%</t>
         </is>
       </c>
     </row>
@@ -17172,12 +17172,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25259</t>
+          <t>24440</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39423</t>
+          <t>39298</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -17187,12 +17187,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -17207,12 +17207,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>26267</t>
+          <t>26852</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>39514</t>
+          <t>39626</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -17222,12 +17222,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -17242,12 +17242,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>55724</t>
+          <t>55855</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>75146</t>
+          <t>75303</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -17257,12 +17257,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>31,75%</t>
         </is>
       </c>
     </row>
@@ -17402,12 +17402,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11143</t>
+          <t>10250</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -17417,12 +17417,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -17437,12 +17437,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>5467</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>16817</t>
+          <t>17875</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -17452,12 +17452,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -17472,12 +17472,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>9552</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>23312</t>
+          <t>22964</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -17487,12 +17487,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -17515,12 +17515,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12752</t>
+          <t>12432</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>24793</t>
+          <t>24753</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -17530,12 +17530,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -17550,12 +17550,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17684</t>
+          <t>17509</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>29101</t>
+          <t>28658</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -17565,12 +17565,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -17585,12 +17585,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>33263</t>
+          <t>32734</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>50079</t>
+          <t>49655</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -17600,12 +17600,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,22%</t>
         </is>
       </c>
     </row>
@@ -17628,12 +17628,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>43552</t>
+          <t>43017</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>59519</t>
+          <t>58882</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -17643,12 +17643,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -17663,12 +17663,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>55855</t>
+          <t>56722</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>71645</t>
+          <t>71711</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -17698,12 +17698,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>104429</t>
+          <t>104154</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>126541</t>
+          <t>127550</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -17713,12 +17713,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>59,64%</t>
         </is>
       </c>
     </row>
@@ -17741,12 +17741,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17642</t>
+          <t>17694</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>30359</t>
+          <t>30910</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -17756,12 +17756,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -17776,12 +17776,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>14901</t>
+          <t>14977</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>25627</t>
+          <t>25739</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -17791,12 +17791,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -17811,12 +17811,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>34399</t>
+          <t>34358</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>52571</t>
+          <t>53660</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -17826,12 +17826,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>25,09%</t>
         </is>
       </c>
     </row>
@@ -17971,12 +17971,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>2296</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10262</t>
+          <t>9740</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -17986,12 +17986,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -18006,12 +18006,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>16467</t>
+          <t>15152</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -18021,12 +18021,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -18041,12 +18041,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>7516</t>
+          <t>7141</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>21046</t>
+          <t>20924</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -18084,12 +18084,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11073</t>
+          <t>11373</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>22878</t>
+          <t>22574</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -18099,12 +18099,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -18119,12 +18119,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>18567</t>
+          <t>18293</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>30585</t>
+          <t>29916</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -18134,12 +18134,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -18154,12 +18154,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>31916</t>
+          <t>31446</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>47755</t>
+          <t>47893</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -18169,12 +18169,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,42%</t>
         </is>
       </c>
     </row>
@@ -18197,12 +18197,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>35602</t>
+          <t>35431</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>48231</t>
+          <t>47628</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>68,92%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>40217</t>
+          <t>40526</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>54336</t>
+          <t>54454</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -18247,12 +18247,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -18267,12 +18267,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>79863</t>
+          <t>80475</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>99180</t>
+          <t>98702</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -18282,12 +18282,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>62,68%</t>
         </is>
       </c>
     </row>
@@ -18310,12 +18310,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10299</t>
+          <t>10347</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -18325,12 +18325,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -18345,12 +18345,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>6073</t>
+          <t>6276</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>13195</t>
+          <t>13694</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -18360,12 +18360,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -18380,12 +18380,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>11578</t>
+          <t>11659</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>20478</t>
+          <t>21657</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -18395,12 +18395,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3940</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11081</t>
+          <t>11108</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -18555,12 +18555,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -18575,12 +18575,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>18364</t>
+          <t>18573</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>32796</t>
+          <t>33128</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -18590,12 +18590,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -18610,12 +18610,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>24276</t>
+          <t>24034</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>39504</t>
+          <t>41186</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -18625,12 +18625,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -18653,12 +18653,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>23899</t>
+          <t>23562</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>35205</t>
+          <t>35266</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -18668,12 +18668,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -18688,12 +18688,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>33150</t>
+          <t>33860</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>49696</t>
+          <t>50207</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -18703,12 +18703,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -18723,12 +18723,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>60987</t>
+          <t>61270</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>80183</t>
+          <t>82554</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -18738,12 +18738,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>45,02%</t>
         </is>
       </c>
     </row>
@@ -18766,12 +18766,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>21838</t>
+          <t>21104</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>33245</t>
+          <t>33201</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -18781,12 +18781,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -18801,12 +18801,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>32281</t>
+          <t>32343</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>47079</t>
+          <t>47521</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -18816,12 +18816,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -18836,12 +18836,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>57922</t>
+          <t>57072</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>76755</t>
+          <t>76823</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -18851,12 +18851,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>41,89%</t>
         </is>
       </c>
     </row>
@@ -18879,12 +18879,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>8352</t>
+          <t>8562</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -18894,12 +18894,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -18914,12 +18914,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5575</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>12629</t>
+          <t>12891</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -18934,7 +18934,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -18949,12 +18949,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>10266</t>
+          <t>10117</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>19330</t>
+          <t>19034</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -18964,12 +18964,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -19109,12 +19109,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>17307</t>
+          <t>17508</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>32066</t>
+          <t>31516</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -19144,12 +19144,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>39672</t>
+          <t>39497</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>62029</t>
+          <t>63068</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -19159,12 +19159,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -19179,12 +19179,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>60275</t>
+          <t>61676</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>87801</t>
+          <t>88866</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -19194,12 +19194,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -19222,12 +19222,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>90183</t>
+          <t>90166</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>118119</t>
+          <t>119160</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -19242,7 +19242,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -19257,12 +19257,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>128375</t>
+          <t>130632</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>162020</t>
+          <t>162516</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -19272,12 +19272,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -19292,12 +19292,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>228135</t>
+          <t>227345</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>271029</t>
+          <t>271417</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -19307,12 +19307,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,84%</t>
         </is>
       </c>
     </row>
@@ -19335,12 +19335,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>274003</t>
+          <t>271790</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>312817</t>
+          <t>312146</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -19350,12 +19350,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -19370,12 +19370,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>324248</t>
+          <t>323509</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>363804</t>
+          <t>363810</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -19385,12 +19385,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -19405,12 +19405,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>608934</t>
+          <t>606707</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>662496</t>
+          <t>664125</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -19420,12 +19420,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>46,1%</t>
         </is>
       </c>
     </row>
@@ -19448,12 +19448,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>243853</t>
+          <t>243224</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>281542</t>
+          <t>280977</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -19463,12 +19463,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -19483,12 +19483,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>203164</t>
+          <t>201791</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>238908</t>
+          <t>239755</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -19498,12 +19498,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -19518,12 +19518,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>456780</t>
+          <t>454689</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>510896</t>
+          <t>511921</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -19533,12 +19533,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>35,54%</t>
         </is>
       </c>
     </row>
